--- a/Documentacao/graficoBurnDown.xlsx
+++ b/Documentacao/graficoBurnDown.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutopecasMcQueen\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA183896-DE7C-4B49-912A-548C643E4E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D73DC6-4051-4D0D-AB9D-33A71E83A4AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="2" xr2:uid="{A9A78A5D-B30D-44F0-B5CB-B2B1D3CE7A35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="1" activeTab="2" xr2:uid="{A9A78A5D-B30D-44F0-B5CB-B2B1D3CE7A35}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="4" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
-    <sheet name="Planilha 3" sheetId="3" r:id="rId3"/>
+    <sheet name="AP BurnDown" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -89,12 +89,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,7 +922,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Planilha 3'!$E$2</c:f>
+              <c:f>'AP BurnDown'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -956,7 +957,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Planilha 3'!$A$3:$A$11</c:f>
+              <c:f>'AP BurnDown'!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -992,36 +993,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Planilha 3'!$E$3:$E$11</c:f>
+              <c:f>'AP BurnDown'!$E$3:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1700</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1200</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>950</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>750</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>550</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-200</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,7 +1039,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Planilha 3'!$F$2</c:f>
+              <c:f>'AP BurnDown'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1162,7 +1163,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'Planilha 3'!$A$3:$A$11</c:f>
+              <c:f>'AP BurnDown'!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1198,33 +1199,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Planilha 3'!$F$3:$F$11</c:f>
+              <c:f>'AP BurnDown'!$F$3:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1414,7 +1415,7 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="0"/>
+    <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
@@ -2614,8 +2615,8 @@
       <xdr:rowOff>30557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>346341</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>106757</xdr:rowOff>
     </xdr:to>
@@ -2959,7 +2960,7 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H1:H1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,10 +3189,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B988CE95-B5BE-457A-8BE6-D647639C07CD}">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3204,7 +3205,7 @@
     <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3235,17 +3236,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1700</v>
+        <v>208</v>
       </c>
       <c r="F3">
-        <f>B4</f>
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3256,18 +3256,17 @@
         <v>200</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f>E3-D4</f>
-        <v>1500</v>
-      </c>
-      <c r="F4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>208</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3278,18 +3277,17 @@
         <v>200</v>
       </c>
       <c r="D5">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f>E4-D5</f>
-        <v>1200</v>
-      </c>
-      <c r="F5" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>208</v>
+      </c>
+      <c r="F5">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3300,18 +3298,18 @@
         <v>200</v>
       </c>
       <c r="D6">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f>E5-D6</f>
-        <v>950</v>
-      </c>
-      <c r="F6" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3322,18 +3320,17 @@
         <v>200</v>
       </c>
       <c r="D7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E11" si="0">E6-D7</f>
-        <v>750</v>
-      </c>
-      <c r="F7" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>208</v>
+      </c>
+      <c r="F7">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3344,18 +3341,17 @@
         <v>220</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>550</v>
-      </c>
-      <c r="F8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>208</v>
+      </c>
+      <c r="F8">
+        <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3366,18 +3362,17 @@
         <v>220</v>
       </c>
       <c r="D9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="F9" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>208</v>
+      </c>
+      <c r="F9">
+        <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3388,50 +3383,50 @@
         <v>230</v>
       </c>
       <c r="D10">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F10" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>208</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>230</v>
       </c>
       <c r="D11">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-200</v>
+        <v>208</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>SUM(C3:C11)</f>
         <v>1700</v>
       </c>
       <c r="D12">
         <f>SUM(D3:D11)</f>
-        <v>1900</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>